--- a/biology/Botanique/Gynophore/Gynophore.xlsx
+++ b/biology/Botanique/Gynophore/Gynophore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un gynophore est un axe, présent dans les fleurs de certaines espèces, qui résulte du prolongement intrafloral du pédoncule de la fleur, entraînant la surélévation du pistil par rapport au réceptacle floral[1]. Le gynophore de l'arachide poursuit son développement après la fécondation, se courbe et permet aux fruits de s'enterrer.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un gynophore est un axe, présent dans les fleurs de certaines espèces, qui résulte du prolongement intrafloral du pédoncule de la fleur, entraînant la surélévation du pistil par rapport au réceptacle floral. Le gynophore de l'arachide poursuit son développement après la fécondation, se courbe et permet aux fruits de s'enterrer.
 			Gynophore d'un plant de câprier.
 			Gynophore d'une benoîte.
 			Illustration d'une benoîte : le gynophore (n° 5).
